--- a/content/post/extracted/pp_mafia.xlsx
+++ b/content/post/extracted/pp_mafia.xlsx
@@ -2989,5 +2989,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>